--- a/user_files/hilarytn/master_file.xlsx
+++ b/user_files/hilarytn/master_file.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,7 +507,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>9d7fe935-9ba4-4289-a505-a9d49b45ad9f</t>
+          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
         </is>
       </c>
       <c r="H2" s="3" t="n">
@@ -541,7 +541,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>9d7fe935-9ba4-4289-a505-a9d49b45ad9f</t>
+          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
         </is>
       </c>
       <c r="H3" s="3" t="n">
@@ -575,7 +575,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>9d7fe935-9ba4-4289-a505-a9d49b45ad9f</t>
+          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
         </is>
       </c>
       <c r="H4" s="3" t="n">
@@ -609,7 +609,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>9d7fe935-9ba4-4289-a505-a9d49b45ad9f</t>
+          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
         </is>
       </c>
       <c r="H5" s="3" t="n">
@@ -643,7 +643,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>9d7fe935-9ba4-4289-a505-a9d49b45ad9f</t>
+          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
         </is>
       </c>
       <c r="H6" s="3" t="n">
@@ -677,7 +677,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>9d7fe935-9ba4-4289-a505-a9d49b45ad9f</t>
+          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
         </is>
       </c>
       <c r="H7" s="3" t="n">
@@ -711,7 +711,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>9d7fe935-9ba4-4289-a505-a9d49b45ad9f</t>
+          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
         </is>
       </c>
       <c r="H8" s="3" t="n">
@@ -745,7 +745,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>9d7fe935-9ba4-4289-a505-a9d49b45ad9f</t>
+          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
         </is>
       </c>
       <c r="H9" s="3" t="n">
@@ -779,7 +779,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>9d7fe935-9ba4-4289-a505-a9d49b45ad9f</t>
+          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
         </is>
       </c>
       <c r="H10" s="3" t="n">
@@ -813,7 +813,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>9d7fe935-9ba4-4289-a505-a9d49b45ad9f</t>
+          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
         </is>
       </c>
       <c r="H11" s="3" t="n">
@@ -847,7 +847,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>9d7fe935-9ba4-4289-a505-a9d49b45ad9f</t>
+          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
         </is>
       </c>
       <c r="H12" s="3" t="n">
@@ -881,7 +881,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>9d7fe935-9ba4-4289-a505-a9d49b45ad9f</t>
+          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
         </is>
       </c>
       <c r="H13" s="3" t="n">
@@ -915,7 +915,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>9d7fe935-9ba4-4289-a505-a9d49b45ad9f</t>
+          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
         </is>
       </c>
       <c r="H14" s="3" t="n">
@@ -949,7 +949,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>9d7fe935-9ba4-4289-a505-a9d49b45ad9f</t>
+          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
         </is>
       </c>
       <c r="H15" s="3" t="n">
@@ -983,7 +983,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>9d7fe935-9ba4-4289-a505-a9d49b45ad9f</t>
+          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
         </is>
       </c>
       <c r="H16" s="3" t="n">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>9d7fe935-9ba4-4289-a505-a9d49b45ad9f</t>
+          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
         </is>
       </c>
       <c r="H17" s="3" t="n">
@@ -1051,7 +1051,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>9d7fe935-9ba4-4289-a505-a9d49b45ad9f</t>
+          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
         </is>
       </c>
       <c r="H18" s="3" t="n">
@@ -1085,7 +1085,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>9d7fe935-9ba4-4289-a505-a9d49b45ad9f</t>
+          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
         </is>
       </c>
       <c r="H19" s="3" t="n">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>9d7fe935-9ba4-4289-a505-a9d49b45ad9f</t>
+          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
         </is>
       </c>
       <c r="H20" s="3" t="n">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>9d7fe935-9ba4-4289-a505-a9d49b45ad9f</t>
+          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
         </is>
       </c>
       <c r="H21" s="3" t="n">
@@ -1187,7 +1187,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>9d7fe935-9ba4-4289-a505-a9d49b45ad9f</t>
+          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
         </is>
       </c>
       <c r="H22" s="3" t="n">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>9d7fe935-9ba4-4289-a505-a9d49b45ad9f</t>
+          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
         </is>
       </c>
       <c r="H23" s="3" t="n">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>9d7fe935-9ba4-4289-a505-a9d49b45ad9f</t>
+          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
         </is>
       </c>
       <c r="H24" s="3" t="n">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>9d7fe935-9ba4-4289-a505-a9d49b45ad9f</t>
+          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
         </is>
       </c>
       <c r="H25" s="3" t="n">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>9d7fe935-9ba4-4289-a505-a9d49b45ad9f</t>
+          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
         </is>
       </c>
       <c r="H26" s="3" t="n">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>9d7fe935-9ba4-4289-a505-a9d49b45ad9f</t>
+          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
         </is>
       </c>
       <c r="H27" s="3" t="n">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>9d7fe935-9ba4-4289-a505-a9d49b45ad9f</t>
+          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
         </is>
       </c>
       <c r="H28" s="3" t="n">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>9d7fe935-9ba4-4289-a505-a9d49b45ad9f</t>
+          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
         </is>
       </c>
       <c r="H29" s="3" t="n">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>9d7fe935-9ba4-4289-a505-a9d49b45ad9f</t>
+          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
         </is>
       </c>
       <c r="H30" s="3" t="n">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>9d7fe935-9ba4-4289-a505-a9d49b45ad9f</t>
+          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
         </is>
       </c>
       <c r="H31" s="3" t="n">
@@ -1527,7 +1527,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>9d7fe935-9ba4-4289-a505-a9d49b45ad9f</t>
+          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
         </is>
       </c>
       <c r="H32" s="3" t="n">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>9d7fe935-9ba4-4289-a505-a9d49b45ad9f</t>
+          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
         </is>
       </c>
       <c r="H33" s="3" t="n">
@@ -1595,7 +1595,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>9d7fe935-9ba4-4289-a505-a9d49b45ad9f</t>
+          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
         </is>
       </c>
       <c r="H34" s="3" t="n">
@@ -1629,7 +1629,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>9d7fe935-9ba4-4289-a505-a9d49b45ad9f</t>
+          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
         </is>
       </c>
       <c r="H35" s="3" t="n">
@@ -1663,7 +1663,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>9d7fe935-9ba4-4289-a505-a9d49b45ad9f</t>
+          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
         </is>
       </c>
       <c r="H36" s="3" t="n">
@@ -1697,7 +1697,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>9d7fe935-9ba4-4289-a505-a9d49b45ad9f</t>
+          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
         </is>
       </c>
       <c r="H37" s="3" t="n">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>9d7fe935-9ba4-4289-a505-a9d49b45ad9f</t>
+          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
         </is>
       </c>
       <c r="H38" s="3" t="n">
@@ -1765,7 +1765,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>9d7fe935-9ba4-4289-a505-a9d49b45ad9f</t>
+          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
         </is>
       </c>
       <c r="H39" s="3" t="n">
@@ -1799,7 +1799,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>9d7fe935-9ba4-4289-a505-a9d49b45ad9f</t>
+          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
         </is>
       </c>
       <c r="H40" s="3" t="n">
@@ -1833,10 +1833,554 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>9d7fe935-9ba4-4289-a505-a9d49b45ad9f</t>
+          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
         </is>
       </c>
       <c r="H41" s="3" t="n">
+        <v>0.0002314814814814815</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Line:3 Stage:1</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>12/11/2023</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>SEC Cl</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>45271.36145825232</v>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>45271.36158556713</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
+        </is>
+      </c>
+      <c r="H42" s="3" t="n">
+        <v>0.0001273148148148148</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Line:3 Stage:1</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>12/11/2023</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>PRI pH</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>45271.68537890046</v>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>45271.68549464121</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
+        </is>
+      </c>
+      <c r="H43" s="3" t="n">
+        <v>0.0001157407407407407</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Line:3 Stage:1</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>12/11/2023</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>PRI pH SEC pH</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>45271.68549475694</v>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>45271.68769383102</v>
+      </c>
+      <c r="F44" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
+        </is>
+      </c>
+      <c r="H44" s="3" t="n">
+        <v>0.002199074074074074</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Line:3 Stage:1</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>12/11/2023</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>PRI pH&amp;rem SEC pH</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>45271.6876965625</v>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>45271.68898128472</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
+        </is>
+      </c>
+      <c r="H45" s="3" t="n">
+        <v>0.001284722222222222</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Line:3 Stage:1</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>12/11/2023</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>PRI pH&amp;rem SEC pH&amp;rem</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>45271.68897129629</v>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>45271.68908703703</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
+        </is>
+      </c>
+      <c r="H46" s="3" t="n">
+        <v>0.0001157407407407407</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Line:3 Stage:1</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>12/11/2023</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>PRI pH SEC pH</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>45271.6890871875</v>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>45271.68920292824</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
+        </is>
+      </c>
+      <c r="H47" s="3" t="n">
+        <v>0.0001157407407407407</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Line:3 Stage:1</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>12/11/2023</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>PRI pH SEC pH</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>45271.89825825232</v>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>45271.8996471412</v>
+      </c>
+      <c r="F48" t="n">
+        <v>2</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
+        </is>
+      </c>
+      <c r="H48" s="3" t="n">
+        <v>0.001388888888888889</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Line:3 Stage:1</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>12/11/2023</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>PRI Cl&amp;pH</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>45272.09804105324</v>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>45272.09827253472</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
+        </is>
+      </c>
+      <c r="H49" s="3" t="n">
+        <v>0.0002314814814814815</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Line:3 Stage:1</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>12/11/2023</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>SEC Cl</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>45271.36145825232</v>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>45271.36158556713</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
+        </is>
+      </c>
+      <c r="H50" s="3" t="n">
+        <v>0.0001273148148148148</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Line:3 Stage:1</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>12/11/2023</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>PRI pH</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>45271.68537890046</v>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>45271.68549464121</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
+        </is>
+      </c>
+      <c r="H51" s="3" t="n">
+        <v>0.0001157407407407407</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Line:3 Stage:1</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>12/11/2023</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>PRI pH SEC pH</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>45271.68549475694</v>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>45271.68769383102</v>
+      </c>
+      <c r="F52" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
+        </is>
+      </c>
+      <c r="H52" s="3" t="n">
+        <v>0.002199074074074074</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Line:3 Stage:1</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>12/11/2023</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>PRI pH&amp;rem SEC pH</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>45271.6876965625</v>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>45271.68898128472</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
+        </is>
+      </c>
+      <c r="H53" s="3" t="n">
+        <v>0.001284722222222222</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Line:3 Stage:1</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>12/11/2023</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>PRI pH&amp;rem SEC pH&amp;rem</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>45271.68897129629</v>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>45271.68908703703</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
+        </is>
+      </c>
+      <c r="H54" s="3" t="n">
+        <v>0.0001157407407407407</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Line:3 Stage:1</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>12/11/2023</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>PRI pH SEC pH</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>45271.6890871875</v>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>45271.68920292824</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
+        </is>
+      </c>
+      <c r="H55" s="3" t="n">
+        <v>0.0001157407407407407</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Line:3 Stage:1</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>12/11/2023</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>PRI pH SEC pH</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>45271.89825825232</v>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>45271.8996471412</v>
+      </c>
+      <c r="F56" t="n">
+        <v>2</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
+        </is>
+      </c>
+      <c r="H56" s="3" t="n">
+        <v>0.001388888888888889</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Line:3 Stage:1</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>12/11/2023</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>PRI Cl&amp;pH</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>45272.09804105324</v>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>45272.09827253472</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
+        </is>
+      </c>
+      <c r="H57" s="3" t="n">
         <v>0.0002314814814814815</v>
       </c>
     </row>

--- a/user_files/hilarytn/master_file.xlsx
+++ b/user_files/hilarytn/master_file.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,7 +507,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
+          <t>d85554b9-776c-49d1-bdf2-3016191cd60b</t>
         </is>
       </c>
       <c r="H2" s="3" t="n">
@@ -541,7 +541,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
+          <t>d85554b9-776c-49d1-bdf2-3016191cd60b</t>
         </is>
       </c>
       <c r="H3" s="3" t="n">
@@ -575,7 +575,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
+          <t>d85554b9-776c-49d1-bdf2-3016191cd60b</t>
         </is>
       </c>
       <c r="H4" s="3" t="n">
@@ -609,7 +609,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
+          <t>d85554b9-776c-49d1-bdf2-3016191cd60b</t>
         </is>
       </c>
       <c r="H5" s="3" t="n">
@@ -643,7 +643,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
+          <t>d85554b9-776c-49d1-bdf2-3016191cd60b</t>
         </is>
       </c>
       <c r="H6" s="3" t="n">
@@ -677,7 +677,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
+          <t>d85554b9-776c-49d1-bdf2-3016191cd60b</t>
         </is>
       </c>
       <c r="H7" s="3" t="n">
@@ -711,7 +711,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
+          <t>d85554b9-776c-49d1-bdf2-3016191cd60b</t>
         </is>
       </c>
       <c r="H8" s="3" t="n">
@@ -745,7 +745,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
+          <t>d85554b9-776c-49d1-bdf2-3016191cd60b</t>
         </is>
       </c>
       <c r="H9" s="3" t="n">
@@ -779,7 +779,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
+          <t>d85554b9-776c-49d1-bdf2-3016191cd60b</t>
         </is>
       </c>
       <c r="H10" s="3" t="n">
@@ -813,7 +813,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
+          <t>d85554b9-776c-49d1-bdf2-3016191cd60b</t>
         </is>
       </c>
       <c r="H11" s="3" t="n">
@@ -847,7 +847,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
+          <t>d85554b9-776c-49d1-bdf2-3016191cd60b</t>
         </is>
       </c>
       <c r="H12" s="3" t="n">
@@ -881,7 +881,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
+          <t>d85554b9-776c-49d1-bdf2-3016191cd60b</t>
         </is>
       </c>
       <c r="H13" s="3" t="n">
@@ -915,7 +915,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
+          <t>d85554b9-776c-49d1-bdf2-3016191cd60b</t>
         </is>
       </c>
       <c r="H14" s="3" t="n">
@@ -949,7 +949,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
+          <t>d85554b9-776c-49d1-bdf2-3016191cd60b</t>
         </is>
       </c>
       <c r="H15" s="3" t="n">
@@ -983,7 +983,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
+          <t>d85554b9-776c-49d1-bdf2-3016191cd60b</t>
         </is>
       </c>
       <c r="H16" s="3" t="n">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
+          <t>d85554b9-776c-49d1-bdf2-3016191cd60b</t>
         </is>
       </c>
       <c r="H17" s="3" t="n">
@@ -1051,7 +1051,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
+          <t>d85554b9-776c-49d1-bdf2-3016191cd60b</t>
         </is>
       </c>
       <c r="H18" s="3" t="n">
@@ -1085,7 +1085,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
+          <t>d85554b9-776c-49d1-bdf2-3016191cd60b</t>
         </is>
       </c>
       <c r="H19" s="3" t="n">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
+          <t>d85554b9-776c-49d1-bdf2-3016191cd60b</t>
         </is>
       </c>
       <c r="H20" s="3" t="n">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
+          <t>d85554b9-776c-49d1-bdf2-3016191cd60b</t>
         </is>
       </c>
       <c r="H21" s="3" t="n">
@@ -1187,7 +1187,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
+          <t>d85554b9-776c-49d1-bdf2-3016191cd60b</t>
         </is>
       </c>
       <c r="H22" s="3" t="n">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
+          <t>d85554b9-776c-49d1-bdf2-3016191cd60b</t>
         </is>
       </c>
       <c r="H23" s="3" t="n">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
+          <t>d85554b9-776c-49d1-bdf2-3016191cd60b</t>
         </is>
       </c>
       <c r="H24" s="3" t="n">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
+          <t>d85554b9-776c-49d1-bdf2-3016191cd60b</t>
         </is>
       </c>
       <c r="H25" s="3" t="n">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
+          <t>d85554b9-776c-49d1-bdf2-3016191cd60b</t>
         </is>
       </c>
       <c r="H26" s="3" t="n">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
+          <t>d85554b9-776c-49d1-bdf2-3016191cd60b</t>
         </is>
       </c>
       <c r="H27" s="3" t="n">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
+          <t>d85554b9-776c-49d1-bdf2-3016191cd60b</t>
         </is>
       </c>
       <c r="H28" s="3" t="n">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
+          <t>d85554b9-776c-49d1-bdf2-3016191cd60b</t>
         </is>
       </c>
       <c r="H29" s="3" t="n">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
+          <t>d85554b9-776c-49d1-bdf2-3016191cd60b</t>
         </is>
       </c>
       <c r="H30" s="3" t="n">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
+          <t>d85554b9-776c-49d1-bdf2-3016191cd60b</t>
         </is>
       </c>
       <c r="H31" s="3" t="n">
@@ -1527,7 +1527,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
+          <t>d85554b9-776c-49d1-bdf2-3016191cd60b</t>
         </is>
       </c>
       <c r="H32" s="3" t="n">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
+          <t>d85554b9-776c-49d1-bdf2-3016191cd60b</t>
         </is>
       </c>
       <c r="H33" s="3" t="n">
@@ -1595,7 +1595,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
+          <t>d85554b9-776c-49d1-bdf2-3016191cd60b</t>
         </is>
       </c>
       <c r="H34" s="3" t="n">
@@ -1629,7 +1629,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
+          <t>d85554b9-776c-49d1-bdf2-3016191cd60b</t>
         </is>
       </c>
       <c r="H35" s="3" t="n">
@@ -1663,7 +1663,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
+          <t>d85554b9-776c-49d1-bdf2-3016191cd60b</t>
         </is>
       </c>
       <c r="H36" s="3" t="n">
@@ -1697,7 +1697,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
+          <t>d85554b9-776c-49d1-bdf2-3016191cd60b</t>
         </is>
       </c>
       <c r="H37" s="3" t="n">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
+          <t>d85554b9-776c-49d1-bdf2-3016191cd60b</t>
         </is>
       </c>
       <c r="H38" s="3" t="n">
@@ -1765,7 +1765,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
+          <t>d85554b9-776c-49d1-bdf2-3016191cd60b</t>
         </is>
       </c>
       <c r="H39" s="3" t="n">
@@ -1799,7 +1799,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
+          <t>d85554b9-776c-49d1-bdf2-3016191cd60b</t>
         </is>
       </c>
       <c r="H40" s="3" t="n">
@@ -1833,7 +1833,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
+          <t>d85554b9-776c-49d1-bdf2-3016191cd60b</t>
         </is>
       </c>
       <c r="H41" s="3" t="n">
@@ -1867,7 +1867,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
+          <t>d85554b9-776c-49d1-bdf2-3016191cd60b</t>
         </is>
       </c>
       <c r="H42" s="3" t="n">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
+          <t>d85554b9-776c-49d1-bdf2-3016191cd60b</t>
         </is>
       </c>
       <c r="H43" s="3" t="n">
@@ -1935,7 +1935,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
+          <t>d85554b9-776c-49d1-bdf2-3016191cd60b</t>
         </is>
       </c>
       <c r="H44" s="3" t="n">
@@ -1969,7 +1969,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
+          <t>d85554b9-776c-49d1-bdf2-3016191cd60b</t>
         </is>
       </c>
       <c r="H45" s="3" t="n">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
+          <t>d85554b9-776c-49d1-bdf2-3016191cd60b</t>
         </is>
       </c>
       <c r="H46" s="3" t="n">
@@ -2037,7 +2037,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
+          <t>d85554b9-776c-49d1-bdf2-3016191cd60b</t>
         </is>
       </c>
       <c r="H47" s="3" t="n">
@@ -2071,7 +2071,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
+          <t>d85554b9-776c-49d1-bdf2-3016191cd60b</t>
         </is>
       </c>
       <c r="H48" s="3" t="n">
@@ -2105,7 +2105,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
+          <t>d85554b9-776c-49d1-bdf2-3016191cd60b</t>
         </is>
       </c>
       <c r="H49" s="3" t="n">
@@ -2139,7 +2139,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
+          <t>d85554b9-776c-49d1-bdf2-3016191cd60b</t>
         </is>
       </c>
       <c r="H50" s="3" t="n">
@@ -2173,7 +2173,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
+          <t>d85554b9-776c-49d1-bdf2-3016191cd60b</t>
         </is>
       </c>
       <c r="H51" s="3" t="n">
@@ -2207,7 +2207,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
+          <t>d85554b9-776c-49d1-bdf2-3016191cd60b</t>
         </is>
       </c>
       <c r="H52" s="3" t="n">
@@ -2241,7 +2241,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
+          <t>d85554b9-776c-49d1-bdf2-3016191cd60b</t>
         </is>
       </c>
       <c r="H53" s="3" t="n">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
+          <t>d85554b9-776c-49d1-bdf2-3016191cd60b</t>
         </is>
       </c>
       <c r="H54" s="3" t="n">
@@ -2309,7 +2309,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
+          <t>d85554b9-776c-49d1-bdf2-3016191cd60b</t>
         </is>
       </c>
       <c r="H55" s="3" t="n">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
+          <t>d85554b9-776c-49d1-bdf2-3016191cd60b</t>
         </is>
       </c>
       <c r="H56" s="3" t="n">
@@ -2377,10 +2377,282 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>ddb71f0e-ca75-4b40-9ae2-33afa81c43ba</t>
+          <t>d85554b9-776c-49d1-bdf2-3016191cd60b</t>
         </is>
       </c>
       <c r="H57" s="3" t="n">
+        <v>0.0002314814814814815</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Line:3 Stage:1</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>12/11/2023</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>SEC Cl</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>45271.36145825232</v>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45271.36158556713</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>d85554b9-776c-49d1-bdf2-3016191cd60b</t>
+        </is>
+      </c>
+      <c r="H58" s="3" t="n">
+        <v>0.0001273148148148148</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Line:3 Stage:1</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>12/11/2023</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>PRI pH</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="n">
+        <v>45271.68537890046</v>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45271.68549464121</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>d85554b9-776c-49d1-bdf2-3016191cd60b</t>
+        </is>
+      </c>
+      <c r="H59" s="3" t="n">
+        <v>0.0001157407407407407</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Line:3 Stage:1</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>12/11/2023</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>PRI pH SEC pH</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="n">
+        <v>45271.68549475694</v>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45271.68769383102</v>
+      </c>
+      <c r="F60" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>d85554b9-776c-49d1-bdf2-3016191cd60b</t>
+        </is>
+      </c>
+      <c r="H60" s="3" t="n">
+        <v>0.002199074074074074</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Line:3 Stage:1</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>12/11/2023</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>PRI pH&amp;rem SEC pH</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="n">
+        <v>45271.6876965625</v>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45271.68898128472</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>d85554b9-776c-49d1-bdf2-3016191cd60b</t>
+        </is>
+      </c>
+      <c r="H61" s="3" t="n">
+        <v>0.001284722222222222</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Line:3 Stage:1</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>12/11/2023</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>PRI pH&amp;rem SEC pH&amp;rem</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>45271.68897129629</v>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45271.68908703703</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>d85554b9-776c-49d1-bdf2-3016191cd60b</t>
+        </is>
+      </c>
+      <c r="H62" s="3" t="n">
+        <v>0.0001157407407407407</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Line:3 Stage:1</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>12/11/2023</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>PRI pH SEC pH</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="n">
+        <v>45271.6890871875</v>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45271.68920292824</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>d85554b9-776c-49d1-bdf2-3016191cd60b</t>
+        </is>
+      </c>
+      <c r="H63" s="3" t="n">
+        <v>0.0001157407407407407</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Line:3 Stage:1</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>12/11/2023</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>PRI pH SEC pH</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="n">
+        <v>45271.89825825232</v>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45271.8996471412</v>
+      </c>
+      <c r="F64" t="n">
+        <v>2</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>d85554b9-776c-49d1-bdf2-3016191cd60b</t>
+        </is>
+      </c>
+      <c r="H64" s="3" t="n">
+        <v>0.001388888888888889</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Line:3 Stage:1</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>12/11/2023</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>PRI Cl&amp;pH</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="n">
+        <v>45272.09804105324</v>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45272.09827253472</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>d85554b9-776c-49d1-bdf2-3016191cd60b</t>
+        </is>
+      </c>
+      <c r="H65" s="3" t="n">
         <v>0.0002314814814814815</v>
       </c>
     </row>
